--- a/data/outputs/OR_altmetric/53.xlsx
+++ b/data/outputs/OR_altmetric/53.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE91"/>
+  <dimension ref="A1:CF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1776,6 +1790,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2025,6 +2042,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2276,6 +2296,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2529,6 +2552,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2780,6 +2806,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3031,6 +3060,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3292,6 +3324,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3543,6 +3578,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3804,6 +3842,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4055,6 +4096,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4304,6 +4348,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4549,6 +4596,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4804,6 +4854,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5055,6 +5108,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5312,6 +5368,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5575,6 +5634,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5826,6 +5888,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6077,6 +6142,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6332,6 +6400,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6585,6 +6656,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6848,6 +6922,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7105,6 +7182,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,6 +7430,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7599,6 +7682,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7844,6 +7930,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8093,6 +8182,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8342,6 +8434,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8599,6 +8694,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8848,6 +8946,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9097,6 +9198,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9346,6 +9450,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9593,6 +9700,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9844,6 +9954,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10095,6 +10208,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10350,6 +10466,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10597,6 +10716,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10846,6 +10968,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11093,6 +11218,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11356,6 +11484,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11609,6 +11740,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11854,6 +11988,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12113,6 +12250,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12368,6 +12508,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12619,6 +12762,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12870,6 +13016,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13121,6 +13270,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13370,6 +13522,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13615,6 +13770,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13858,6 +14016,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14113,6 +14274,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14356,6 +14520,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14605,6 +14772,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14854,6 +15024,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15105,6 +15278,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15356,6 +15532,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15607,6 +15786,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15872,6 +16054,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16123,6 +16308,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16374,6 +16562,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16625,6 +16816,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16888,6 +17082,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17147,6 +17344,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17398,6 +17598,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17655,6 +17858,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17916,6 +18122,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18165,6 +18374,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18408,6 +18620,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18653,6 +18868,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18902,6 +19120,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19143,6 +19364,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19390,6 +19614,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19641,6 +19868,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19892,6 +20122,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20149,6 +20382,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20398,6 +20634,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20645,6 +20884,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20898,6 +21140,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21135,6 +21380,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21390,6 +21638,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21637,6 +21888,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21884,6 +22138,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22129,6 +22386,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22364,6 +22624,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22595,6 +22858,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22830,6 +23096,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23059,6 +23328,9 @@
         <v>0</v>
       </c>
       <c r="CE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23288,6 +23560,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
